--- a/Documentation/DayZ-Building-Resources.xlsx
+++ b/Documentation/DayZ-Building-Resources.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roland\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\websites\eclipse\DayZ\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -179,8 +179,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +197,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -238,6 +247,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -299,7 +312,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -561,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,25 +1147,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="C23" s="4">
+    <row r="23" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="C23" s="6">
         <f>SUM(C18:C22)</f>
         <v>6</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="6">
         <f t="shared" ref="D23:G23" si="9">SUM(D18:D22)</f>
         <v>1</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="6">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="6">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="6">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -1374,6 +1387,22 @@
       <c r="L46" t="s">
         <v>49</v>
       </c>
+    </row>
+    <row r="47" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+      <c r="C47" s="6">
+        <f>SUM(C37:C46)</f>
+        <v>1</v>
+      </c>
+      <c r="D47" s="6">
+        <f>SUM(D37:D46)</f>
+        <v>9</v>
+      </c>
+      <c r="E47" s="6">
+        <f>SUM(E37:E46)</f>
+        <v>2</v>
+      </c>
+      <c r="F47" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
